--- a/src/sensitivity_punishment_condition_exc.xlsx
+++ b/src/sensitivity_punishment_condition_exc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic18563\OneDrive - University of Bristol\python different\python start\Experimental - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{093B0F1B-2DEC-964C-88F0-3E6BB259C631}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{ABFF19C5-7B6C-463E-ADDD-3B4B6ABEEB00}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{093B0F1B-2DEC-964C-88F0-3E6BB259C631}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E7498DE2-E935-4333-8FE4-B365306A7188}"/>
   <bookViews>
-    <workbookView xWindow="-21555" yWindow="1380" windowWidth="21195" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21900" yWindow="1035" windowWidth="21195" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sensitivity_punishment" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B4738"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1684,6 +1684,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>